--- a/public/templates/restaurant.xlsx
+++ b/public/templates/restaurant.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Restaurant Name</t>
   </si>
@@ -87,6 +87,36 @@
   </si>
   <si>
     <t>Votes</t>
+  </si>
+  <si>
+    <t>Sparrows At Home Bakery &amp; Cafe</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>First Floor, KM-01, Sector 104, Sector 110, Noida</t>
+  </si>
+  <si>
+    <t>Sector 110</t>
+  </si>
+  <si>
+    <t>Sector 110, Noida</t>
+  </si>
+  <si>
+    <t>Cafe, Bakery</t>
+  </si>
+  <si>
+    <t>Indian Rupees(Rs.)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -702,8 +732,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,13 +1272,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="A2" sqref="A2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="2:21">
       <c r="B1" t="s">
@@ -1307,6 +1340,71 @@
       </c>
       <c r="U1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1">
+        <v>8245</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1">
+        <v>77.3682633</v>
+      </c>
+      <c r="I2" s="1">
+        <v>28.54079875</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1">
+        <v>500</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
